--- a/Assignment Files/Estimations.xlsx
+++ b/Assignment Files/Estimations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">Insulated Narwhal</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">MVF 6 – Print Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 1 - Map selection Multiple councils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 2 - Data Selection allows for Query Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 3 - Enhanced Data Visualization</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
@@ -102,14 +111,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -351,19 +360,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -426,13 +435,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>22</v>
@@ -456,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>10</v>
@@ -478,109 +487,175 @@
       </c>
       <c r="I5" s="11" t="n">
         <f aca="false">AVERAGEIF(B5:H5,"&gt;0")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="E6" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="11" t="n">
         <f aca="false">AVERAGEIF(B6:H6,"&gt;0")</f>
-        <v>15</v>
+        <v>20.3333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>30</v>
+      </c>
       <c r="E7" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="11" t="n">
         <f aca="false">AVERAGEIF(B7:H7,"&gt;0")</f>
-        <v>30</v>
+        <v>30.6666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>22</v>
+      </c>
       <c r="E8" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="11" t="n">
         <f aca="false">AVERAGEIF(B8:H8,"&gt;0")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="E9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="11" t="n">
         <f aca="false">AVERAGEIF(B9:H9,"&gt;0")</f>
-        <v>8</v>
+        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>35</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -676,11 +751,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H21" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" s="14" t="n">
         <f aca="false">SUM(I4:I20)</f>
-        <v>105</v>
+        <v>117.666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment Files/Estimations.xlsx
+++ b/Assignment Files/Estimations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">Insulated Narwhal</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">MVF 6 – Print Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 1 - Map selection Multiple councils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 2 - Data Selection allows for Query Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVF 3 - Enhanced Data Visualization</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
@@ -102,14 +111,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -350,20 +359,20 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -426,13 +435,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>22</v>
@@ -456,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>10</v>
@@ -478,113 +487,188 @@
       </c>
       <c r="I5" s="11" t="n">
         <f aca="false">AVERAGEIF(B5:H5,"&gt;0")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="E6" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="11" t="n">
         <f aca="false">AVERAGEIF(B6:H6,"&gt;0")</f>
-        <v>15</v>
+        <v>20.3333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>30</v>
+      </c>
       <c r="E7" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="11" t="n">
         <f aca="false">AVERAGEIF(B7:H7,"&gt;0")</f>
-        <v>30</v>
+        <v>30.6666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>22</v>
+      </c>
       <c r="E8" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="11" t="n">
         <f aca="false">AVERAGEIF(B8:H8,"&gt;0")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="E9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="11" t="n">
         <f aca="false">AVERAGEIF(B9:H9,"&gt;0")</f>
-        <v>8</v>
+        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="n">
+        <f aca="false">AVERAGEIF(B10:H10,"&gt;0")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="n">
+        <f aca="false">AVERAGEIF(B11:H11,"&gt;0")</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>35</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="n">
+        <f aca="false">AVERAGEIF(B12:H12,"&gt;0")</f>
+        <v>32.5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -676,11 +760,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H21" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" s="14" t="n">
         <f aca="false">SUM(I4:I20)</f>
-        <v>105</v>
+        <v>171.166666666667</v>
       </c>
     </row>
   </sheetData>
